--- a/Data_Dictionary.xlsx
+++ b/Data_Dictionary.xlsx
@@ -7,19 +7,18 @@
     <workbookView xWindow="375" yWindow="1650" windowWidth="31005" windowHeight="15195"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Dictionary" sheetId="1" r:id="rId1"/>
+    <sheet name="Dictionary DQ Analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dictionary!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="78">
   <si>
     <t>item_id</t>
   </si>
@@ -285,12 +284,15 @@
   <si>
     <t>Mandatory</t>
   </si>
+  <si>
+    <t>PII</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,19 +308,139 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -327,12 +449,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,19 +496,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F26">
     <filterColumn colId="3"/>
+    <filterColumn colId="5"/>
   </autoFilter>
-  <tableColumns count="8">
+  <tableColumns count="6">
     <tableColumn id="1" name="Field Name"/>
     <tableColumn id="2" name="Original/Derived"/>
     <tableColumn id="3" name="Type"/>
     <tableColumn id="8" name="Mandatory"/>
     <tableColumn id="4" name="Description"/>
-    <tableColumn id="5" name="DQ Flag"/>
-    <tableColumn id="6" name="DQ Issues Description"/>
-    <tableColumn id="7" name="Data Remediation"/>
+    <tableColumn id="9" name="PII"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,12 +810,10 @@
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="115.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="120.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -698,16 +830,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -727,7 +853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="255">
+    <row r="3" spans="1:6" ht="255">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -744,16 +870,10 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -773,7 +893,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -790,16 +910,10 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -819,7 +933,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -839,7 +953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -856,16 +970,10 @@
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -885,7 +993,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="240">
+    <row r="10" spans="1:6" ht="240">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -902,16 +1010,10 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -928,16 +1030,10 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -954,16 +1050,10 @@
         <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -983,7 +1073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1003,7 +1093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60">
+    <row r="15" spans="1:6" ht="60">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1020,16 +1110,10 @@
         <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1046,16 +1130,10 @@
         <v>55</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
-      </c>
-      <c r="G16" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1075,7 +1153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1173,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1115,7 +1193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1172,16 +1250,10 @@
         <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1198,10 +1270,10 @@
         <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1218,10 +1290,10 @@
         <v>46</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1238,10 +1310,10 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1330,7 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1272,24 +1344,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="211.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickTop="1">
+      <c r="A17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>